--- a/FPH_Linear/280-FPH-Relatório-Reg-D-COARACY NUNE.xlsx
+++ b/FPH_Linear/280-FPH-Relatório-Reg-D-COARACY NUNE.xlsx
@@ -951,7 +951,7 @@
         <v>0.3347813749687086</v>
       </c>
       <c r="E2">
-        <v>-0.05462952637615562</v>
+        <v>-0.1067974571065661</v>
       </c>
       <c r="F2">
         <v>-5.783277090691127</v>
@@ -960,7 +960,7 @@
         <v>5.439038195929363</v>
       </c>
       <c r="H2">
-        <v>13.95378056286133</v>
+        <v>10.64954939831154</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>0.3179795383636431</v>
       </c>
       <c r="E3">
-        <v>-0.05051679669372858</v>
+        <v>-0.09541836312356633</v>
       </c>
       <c r="F3">
         <v>-6.809911359281652</v>
@@ -997,7 +997,7 @@
         <v>0.2909007161385909</v>
       </c>
       <c r="E4">
-        <v>-0.04388848107872247</v>
+        <v>-0.07707914995951783</v>
       </c>
       <c r="F4">
         <v>-6.917888193893299</v>
@@ -1017,7 +1017,7 @@
         <v>0.2667870185694386</v>
       </c>
       <c r="E5">
-        <v>-0.03798596446242458</v>
+        <v>-0.06074807631758691</v>
       </c>
       <c r="F5">
         <v>-6.554956964834171</v>
@@ -1037,7 +1037,7 @@
         <v>0.2045610232432351</v>
       </c>
       <c r="E6">
-        <v>-0.02275437377313722</v>
+        <v>-0.01860533528003294</v>
       </c>
       <c r="F6">
         <v>-5.026064278659222</v>
@@ -1057,7 +1057,7 @@
         <v>0.1776456081711345</v>
       </c>
       <c r="E7">
-        <v>-0.01836216241022393</v>
+        <v>-0.006452971825332133</v>
       </c>
       <c r="F7">
         <v>-4.364752538551639</v>
@@ -1077,7 +1077,7 @@
         <v>0.1357342913448233</v>
       </c>
       <c r="E8">
-        <v>-0.01494249822325031</v>
+        <v>0.003008549640602772</v>
       </c>
       <c r="F8">
         <v>-3.334991496919496</v>
@@ -1097,7 +1097,7 @@
         <v>0.02138055780749127</v>
       </c>
       <c r="E9">
-        <v>-0.01494249822325031</v>
+        <v>0.003008549640602772</v>
       </c>
       <c r="F9">
         <v>-0.525320298805234</v>
@@ -1117,7 +1117,7 @@
         <v>0.008779180353692441</v>
       </c>
       <c r="E10">
-        <v>-0.01631340811739262</v>
+        <v>-0.0007844816870636952</v>
       </c>
       <c r="F10">
         <v>-0.2157044586110302</v>
@@ -1137,7 +1137,7 @@
         <v>0.002009474797429349</v>
       </c>
       <c r="E11">
-        <v>-0.01852284665572804</v>
+        <v>-0.006897552741746679</v>
       </c>
       <c r="F11">
         <v>-0.04937279515959561</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.02049035219449402</v>
+        <v>-0.01234124395572369</v>
       </c>
       <c r="F12">
         <v>-3.522035104768458E-15</v>
